--- a/check url/links.xlsx
+++ b/check url/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e9a57eaeee39cc8/Desktop/TOP_projects/check url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_5A1D9E3DE3533E7DC64A0EA402A74203E026AAB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04CA706D-6941-4535-9BB1-54B1FF2A6C53}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_5A1D9E3DE3533E7DC64A0EA402A74203E026AAB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC81B980-B97E-4B89-A27F-3B6DDC237F20}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,25 +20,391 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>https://live-azs-nursing.pantheonsite.io/academics/doctor-nursing-practice-dnp/admissions</t>
-  </si>
-  <si>
-    <t>https://live-azs-nursing.pantheonsite.io/academics/doctor-nursing-practice-dnp/specialties/psychiatric-mental-health-nurse-practitioner-pmhnp</t>
-  </si>
-  <si>
-    <t>https://live-azs-nursing.pantheonsite.io/academics/dnp-program/additional-options</t>
-  </si>
-  <si>
-    <t>https://live-azs-nursing.pantheonsite.io/academics/doctor-nursing-practice-dnp/specialties/pediatric-nurse-practitioner-pnp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/catching-dnp-nurse-anesthesia-student-james-gibson</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/catching-dnp-nurse-anesthesia-student-kitra-henker</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-college-nursing-rises-blue-ridge-rankings-national-institutes-health-funding</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-phd-student-investigates-use-psychedelics-treat-mental-health-conditions</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/college-nursing-statement-international-womens-day-and-ukraine-invasion</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/american-cancer-society-funds-research-benefit-hispanic-cancer-survivors-caregivers</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/new-faculty-profile-get-know-meghan-skiba-phd-ms-mph-rdn</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/wildcat-nurse-spotlight-christine-platt-third-year-phd-student</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-dnp-and-mepn-programs-both-rise-us-news-world-report%E2%80%99s-2023-graduate-rankings</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/wildcat-nurse-spotlight-phd-candidate-zhizhong-%E2%80%9Cz%E2%80%9D-li</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-incats-scholar-becomes-one-first-nursing-students-honored-stoklos-foundation</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/new-faculty-profile-get-know-michael-gerhart-ms-med-ba</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/tucson-nurses-week-foundation-honors-dr-pamela-reed-%E2%80%98most-inspirational-mentor%E2%80%99-award</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/eight-uarizona-college-nursing-faculty-honored-2022-tucson-fab-50-nurses</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-bsn-student%E2%80%99s-equity-diversity-and-inclusion-research-wins-best-poster-honors</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-college-nursing-celebrates-spring-2022-convocation</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/aging-place-older-americans-month</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/researchers-test-technology-aimed-improving-medication-adherence</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/professor-lorraine-martin-plank-receives-2022-faanp-legacy-award-american-association-nurse</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/wildcat-nurse-spotlight-jerrol-wallace-third-year-phd-candidate</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-professor-receives-grant-support-future-telehealth-innovations-southern</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-alumna-advances-health-equity-cone-health%E2%80%99s-executive-director-primary-care</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-sensorlab-seed-grant-funds-research-artificial-intelligence-student</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/american-academy-nursing-selects-timian-godfrey-dnp-aprn-fnp-bc-2022-class-new-fellows</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-ancat-students-share-college%E2%80%99s-unique-approach-student-diversity-2022</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-mepn-alumnus-ties-his-love-writing-his-desire-teach-kids-about-health-literacy</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/mother-daughter-mepn-dyad-takes-stage-together-summer-convocation-ceremony</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/julienne-rutherford-phd-joins-university-arizona-college-nursing-john-and-nell-mitchell-endowed</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-professor-selected-recipient-2023-sensor-seed-grant-test-gardening</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-edi-professional%E2%80%99s-bali-trip-will-open-doors-cultural-and-inclusive</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/incoming-uarizona-college-nursing-alumni-council-president-has-big-hopes-future</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-professor-linda-perez-discusses-health-equity-and-importance-hispanic-heritage</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/wildcat-nurse-spotlight-nurse-anesthesia-student-alexa-dang</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/town-council-vote-supports-uarizona-nursing-expansion-gilbert</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/researchers-test-compassion-meditation-improve-health-breast-cancer-survivors-and-their</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/memories-change-nursing-faculty-who-once-were-students</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-college-nursing-celebrates-opening-mepn-program-gilbert</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/wildcat-nurse-spotlight-doctor-nursing-practice-student-jesus-jp-prado</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dr-timian-godfrey-selected-aan-class-2022-fellows</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-researcher-joins-uarizona-college-engineering-explore-israel%E2%80%99s-world-class</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/bachelor-science-nursing-class-2022-backed-passion-research-kerry-chou-seeks-combat-unnecessary</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/university-arizona-college-nursing-alumna-elected-new-american-nurses-association-national</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-provides-life-changing-support-international-health-effort-el-fuerte-mexico</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/nursing-celebrates-graduates-during-fall-convocation</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/made-new-year%E2%80%99s-resolution-stop-smoking-we-can-help-enroll-uarizona-be-smoke-free-study</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/white-coats-presented-doctor-nursing-practice-students</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/faculty-spotlight-jocelyn-nelms-reflects-her-career-and-state-equity-diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/adhs-awards-92m-accelerate-nursing-degrees-uarizona-college-nursing-master%E2%80%99s-students</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/new-faculty-profile-get-know-lateefah-collingwood-phd-nnp</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/college-nursing-holds-year%E2%80%99s-first-clinical-immersion</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/new-uarizona-nursing-sexually-transmitted-infections-course-primes-students-be-change-leaders</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-college-nursing-rises-blue-ridge-rankings-national-institutes-health-funding-0</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dr-tarnia-newton-reflects-her-career-and-state-equity-diversity-and-inclusion-nursing-education</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/assistant-clinical-professor-lisa-kiser-receives-2023-aanp-state-award-excellence-arizona</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/eight-uarizona-college-nursing-faculty-honored-2022-tucson-fab-50-nurses-0</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/renewing-spirit-native-nurses-uarizona-nursing-hosts-2023-national-alaska-native-american</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-professors-reflect-nurses-pivotal-role-during-women%E2%80%99s-history-month</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-hosts-fifth-graders-anna-lawrence-intermediate-school-interprofessional</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/wildcat-nurse-spotlight-eugenie-panafieu-tucson-bsn-student</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-associate-dean-research-judith-gordon-phd-receives-distinguished-mentor-award</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/wildcat-nurse-spotlight-enoch-faith-gideon-tucson-bsn-student</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-alumnus-selected-2023-american-association-nurse-practitioners-fellow</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/new-uarizona-nursing-dean-brian-ahn-has-big-plans-college%E2%80%99s-bright-future</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/these-are-jedi-nurses-dr-tarnia-newton-looking-%E2%80%A6</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dr-timian-godfrey-draws-tradition-guidance-strength</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/anie-summer-intensive-2023-sews-seeds-bright-nursing-future-uarizona-students</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/anie-summer-intensive-2023-focus-bsn-student-samantha-chai</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/anie-summer-intensive-2023-focus-pre-nursing-student-julian-grijalva</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nurse-anesthesiology-program-receives-health-resources-and-service-administration</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dr-taylor-piliae-receives-funding-address-type-2-diabetes-using-integrative-intervention</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dr-brian-ahn-named-dean-university-arizona-college-nursing</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dr-jessica-rainbow-receives-rii-grant-build-intervention-program-creating-supportive-college</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-receives-26m-grant-support-doctor-nursing-practice-students%E2%80%99-clinical</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dr-peggy-jenkins-named-uarizona-college-nursing-associate-dean-academic-affairs</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-faculty-win-prize-nida-substance-use-prevention-services-primary-care</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/honorary-uarizona-nursing-alumna-karen-lou-kennedy-evans%E2%80%99-extraordinary-wound-care-research</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dr-elise-erickson-receives-29m-ro1-award-eunice-kennedy-shriver-national-institute-child-health</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/two-uarizona-nursing-faculty-be-inducted-american-association-nurse-anesthesiology</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/pocn-recognizes-dr-lisa-kiser-2023-q2-community-advocacy-award-outstanding-healthcare-impact</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-receives-26m-grant-support-doctor-nursing-practice-students-clinical</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/assistant-professor-meghan-skiba-receives-nih-loan-repayment-program-award-support-cancer</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-mepn-alumnus%E2%80%99-health-literacy-project-reaches-new-heights</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/visual-tour-august-convocation-2023</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/western-academy-nursing-honors-4-college-nursing</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dr-shu-fen-wungs-newly-funded-research-uses-technology-study-falls-older-adults</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/grant-award-will-allow-assistant-professor-address-pressing-cancer-related-needs-hispanic-men</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/2023-09-08-statement-college-nursing-doctoral-student-seminar</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dr-jessica-rainbow-named-director-clinical-research-partnerships-uarizona-nursing</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dr-timothy-sowicz-%C2%A0-co-investigator-newly-funded-nih-grant</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/faculty-spotlight-dr-thaddeus-pace-explores-stress-biology-cancer-survivors-experiencing</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dr-judith-gordon-receives-nih-r01-supplement-award</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/terry-badger-phd-honored-university-arizona-women-impact-award-2023</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/oasis-older-adult-specialty-interest-scholars-program-december-2023-graduates</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/dean-brian-ahn-first-six-months-college-nursing</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/college-nursing-honors-graduates-fall-convocation</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/about-parto-study</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/sobre-el-estudio-parto</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-college-nursing-ranks-13th-among-public-institutions-nih-funding-recipients-0</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursings-new-nurse-midwifery-specialty-will-increase-workforce-diversity-and-access</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/new-faculty-profile-get-know-elise-erickson-phd-cnm</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/college-nursing-celebrates-65-years-wildcat-nursing-arizona</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/midwifery-specialty-doctor-nursing-practice-program-request-3rd-party-comment</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-phd-student-shines-medical-conference-advocates-nursings-vital-role</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-college-nursing-mepn-program-gilbert-uniquely-educational-recent-graduate-says</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/aleeca-bell-phd-rn-cnm-pioneering-midwifery-and-research-maternal-and-infant-well-being</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/nursing-programs-rise-us-news-world-report-rankings</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-college-nursing-recruiting-almost-doubled-past-four-years</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/wildcat-nurse-spotlight-brayton-amidon-phd-candidate</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/wildcat-nurse-spotlight-clarissa-padilla-gilbert-bsn-ih-student</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-phd-student-and-quidel-scholar-stefanie-boyles-focuses-mother-child</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/3-uarizona-nursing-faculty-honored-tucson-nurses-week</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/nursing-rina-fox-receives-early-stage-investigator-award</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/sarah-j-locke-named-aanp-executive-leadership-program</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/nursing-faculty-and-students-recognized-annual-conference</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/farland-and-rainbow-named-udall-center-fellows</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/3-college-nursing-nurse-midwives-named-fellows</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/army-graduate-program-names-award-after-nursing-jim-reed</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/taylor-piliae-and-godfrey-inducted-nursing-academy</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/gilbert-simulation-center-gets-student-nurses-ready-real-world</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/south-korean-nursing-students-spend-week-learning-tucson</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/wildcat-nurses-join-us-uarizona-college-nursing-homecoming-breakfast-2024</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/u-college-nursing-tops-all-state-programs</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/kara-wantling-receives-sanford-health-nursing-scholarship</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/three-wildcat-nursing-doctoral-students-named-jonas-scholars</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/rainbow-receives-u-distinguished-faculty-award</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/news/chen-x-chen-phd-rn-joins-nursing-sorensen-endowed-professor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -48,31 +414,20 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF1155CC"/>
+      <color theme="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,20 +435,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -107,6 +476,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -310,40 +683,772 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{97517BDE-1DEE-4281-B272-42CA7D1EEFA5}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{6C0C281F-2C0C-4C69-97DB-3A1FA5E5A1DA}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{3C63A7EF-EF95-4DDE-991C-D52499B7AF21}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{9AFFEE83-34FE-4E28-B897-A836D3EB7FB3}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{D37A2485-C325-465B-8440-48BC5D19A5FC}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{D15A1BD2-D21D-4035-8C9F-C648232C5BC5}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{1A5DECD8-4124-47D4-8AA7-88DB807F2DD6}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{EF376BDB-CCC5-43C4-AA1D-E3BD20EA79CB}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{AC1C2F7D-C993-419E-BD38-8C2A387ED56C}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{B786D0BC-EAB7-45F0-A34A-5F4390EF7E27}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{78B436AA-FAE2-47F9-B8DC-DBFFD6686ADF}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{71B05FB4-B882-4AA3-8F2A-CB0C7F33DD35}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{331AA162-904E-4BCC-97C9-48F4253D8641}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{9410DD6E-63B2-49E7-BBC0-6C1A751EBF99}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{4B37E0F5-9F76-43D1-A7EB-87271CFC18B3}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{C0085F33-6E37-475B-A992-DAADF409CFEE}"/>
+    <hyperlink ref="A17" r:id="rId17" xr:uid="{57CEF93A-94D0-4AEC-A9CF-588ED04CE328}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{07771376-502B-4561-9DF3-4E6B551CF686}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{D15EDD59-82B3-45B3-86B1-7C3D75031E12}"/>
+    <hyperlink ref="A20" r:id="rId20" xr:uid="{DF544480-42C3-44A3-9DCE-EB567B93858B}"/>
+    <hyperlink ref="A21" r:id="rId21" xr:uid="{61C2917B-EF1F-4F63-863E-BCF0BB62EEE8}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{62AF83A3-C7F0-48B4-9907-A1053B65FCD5}"/>
+    <hyperlink ref="A23" r:id="rId23" xr:uid="{BDFC54A1-6262-49B8-979D-ED5ED8FD8E06}"/>
+    <hyperlink ref="A24" r:id="rId24" xr:uid="{32389244-C23F-4A24-B718-331D024026F5}"/>
+    <hyperlink ref="A25" r:id="rId25" xr:uid="{4BB33850-840C-487C-8FF7-424137C72FF0}"/>
+    <hyperlink ref="A26" r:id="rId26" xr:uid="{A15890AF-F522-4493-9F60-AF573A3CC657}"/>
+    <hyperlink ref="A27" r:id="rId27" xr:uid="{E14F6A08-15E0-4A59-A0C0-3A00FDE8B9EE}"/>
+    <hyperlink ref="A28" r:id="rId28" xr:uid="{82DB0EFF-085D-46FE-962D-A8283D796398}"/>
+    <hyperlink ref="A29" r:id="rId29" xr:uid="{981FE450-4DCB-487F-8904-42FD831F63B5}"/>
+    <hyperlink ref="A30" r:id="rId30" xr:uid="{FD883FCD-ED04-4737-8E46-79BD05CCEEF8}"/>
+    <hyperlink ref="A31" r:id="rId31" xr:uid="{C6B94ADE-2B2F-46D4-94C4-5A4A5F68C043}"/>
+    <hyperlink ref="A32" r:id="rId32" xr:uid="{675B7E0F-29B9-493C-8AEA-21C4FC137AA9}"/>
+    <hyperlink ref="A33" r:id="rId33" xr:uid="{8B4042C2-4C6B-4C88-B3F5-C723B43EA2C0}"/>
+    <hyperlink ref="A34" r:id="rId34" xr:uid="{EA894C88-51EA-40A6-8A36-ACE8EC05F8D8}"/>
+    <hyperlink ref="A35" r:id="rId35" xr:uid="{BB3B5D1A-1B5C-4D25-B875-DCA8365E0124}"/>
+    <hyperlink ref="A36" r:id="rId36" xr:uid="{6774A514-14B1-4902-9701-D371335B5F65}"/>
+    <hyperlink ref="A37" r:id="rId37" xr:uid="{83E20EC6-0C02-4CB6-BECE-D70A3EA04111}"/>
+    <hyperlink ref="A38" r:id="rId38" xr:uid="{BCF686E5-C85D-4568-83BA-277EFDCE9803}"/>
+    <hyperlink ref="A39" r:id="rId39" xr:uid="{7618F990-8530-403B-B63B-EDAAB933055E}"/>
+    <hyperlink ref="A40" r:id="rId40" xr:uid="{754A490C-7F72-43DB-BDAA-634C3DDA01C4}"/>
+    <hyperlink ref="A41" r:id="rId41" xr:uid="{1324E0AD-B851-48B8-888F-B2188FF50C88}"/>
+    <hyperlink ref="A42" r:id="rId42" xr:uid="{3FD3D40F-1802-4771-804E-F061A817FECB}"/>
+    <hyperlink ref="A43" r:id="rId43" xr:uid="{FE1AF1D0-493E-4BD5-BF45-912AA194D774}"/>
+    <hyperlink ref="A44" r:id="rId44" xr:uid="{DFD2D3E8-06E0-4419-B9C2-0957A3139873}"/>
+    <hyperlink ref="A45" r:id="rId45" xr:uid="{C0575208-DADF-4458-A5AE-EC1BF44F5960}"/>
+    <hyperlink ref="A46" r:id="rId46" xr:uid="{001CBC94-0BFC-4077-A024-CCDE0CE35A85}"/>
+    <hyperlink ref="A47" r:id="rId47" xr:uid="{24CCC24E-2E5D-482C-987C-569EADBBFA59}"/>
+    <hyperlink ref="A48" r:id="rId48" xr:uid="{FDE95647-0394-43B6-984C-19B5B40309DF}"/>
+    <hyperlink ref="A49" r:id="rId49" xr:uid="{C8F2BFB2-0C86-4CFE-8743-6CC2998D232B}"/>
+    <hyperlink ref="A50" r:id="rId50" xr:uid="{13A24170-A804-46F7-AE38-492D6BDC248E}"/>
+    <hyperlink ref="A51" r:id="rId51" xr:uid="{9362FD10-92C4-4D7A-9824-711445721EA8}"/>
+    <hyperlink ref="A52" r:id="rId52" xr:uid="{63A74A36-71F9-4104-B2E8-1F5911611305}"/>
+    <hyperlink ref="A53" r:id="rId53" xr:uid="{6FDFF4D8-BAE8-4D5B-9B30-132110B41319}"/>
+    <hyperlink ref="A54" r:id="rId54" xr:uid="{C300B3E1-1ED7-4F78-B678-BB17F56FE278}"/>
+    <hyperlink ref="A55" r:id="rId55" xr:uid="{2BFA1C4F-F550-4EF7-9052-0D4F134F1223}"/>
+    <hyperlink ref="A56" r:id="rId56" xr:uid="{7AD9A828-2FDA-4231-95AC-4BCE903FFFD2}"/>
+    <hyperlink ref="A57" r:id="rId57" xr:uid="{F905761D-323F-48BA-99E3-B0804751A889}"/>
+    <hyperlink ref="A58" r:id="rId58" xr:uid="{24FC67D7-9122-4E3C-8808-D79CF5DAA99E}"/>
+    <hyperlink ref="A59" r:id="rId59" xr:uid="{EA67538C-5B74-40B1-ADF2-0F402EB62493}"/>
+    <hyperlink ref="A60" r:id="rId60" xr:uid="{79AA98C4-E98A-4688-BC0E-2286F883F3A6}"/>
+    <hyperlink ref="A61" r:id="rId61" xr:uid="{F0F54D7D-8F03-4751-A76A-AE1E32350E53}"/>
+    <hyperlink ref="A62" r:id="rId62" xr:uid="{7CEAC583-C100-49F5-BE80-3A7279EABC5F}"/>
+    <hyperlink ref="A63" r:id="rId63" xr:uid="{59F55F14-7D19-471C-B0B3-043F594527D4}"/>
+    <hyperlink ref="A64" r:id="rId64" xr:uid="{B4C36B7D-9A0C-4B1E-81B2-8123430B53FF}"/>
+    <hyperlink ref="A65" r:id="rId65" xr:uid="{4A6C4A75-8053-4AC9-82D1-7951EDF9BD91}"/>
+    <hyperlink ref="A66" r:id="rId66" xr:uid="{84BFCB91-7471-4578-8017-2D5ACE14CF53}"/>
+    <hyperlink ref="A67" r:id="rId67" xr:uid="{EF363F00-6707-42E3-BB13-210DFB0E5FFE}"/>
+    <hyperlink ref="A68" r:id="rId68" xr:uid="{A706FBE5-B755-4127-91DD-9717EEF8A83E}"/>
+    <hyperlink ref="A69" r:id="rId69" xr:uid="{1BA9529B-34DF-4E6A-95E0-E453C444CA6C}"/>
+    <hyperlink ref="A70" r:id="rId70" xr:uid="{7EE29347-2F9A-4E18-AAC8-BBE8BF6BC48F}"/>
+    <hyperlink ref="A71" r:id="rId71" xr:uid="{3C1DD579-5F87-4752-881C-1D45E11D25A1}"/>
+    <hyperlink ref="A72" r:id="rId72" xr:uid="{20A1A535-6344-460E-98E0-1EE7B25E055B}"/>
+    <hyperlink ref="A73" r:id="rId73" xr:uid="{0C2D322D-0ACB-4463-BE13-D3318407894A}"/>
+    <hyperlink ref="A74" r:id="rId74" xr:uid="{87ACDE3D-7FF4-47E8-B017-7DAF958FA02E}"/>
+    <hyperlink ref="A75" r:id="rId75" xr:uid="{11565FAC-6B81-4637-803A-31D6FFC67AE5}"/>
+    <hyperlink ref="A76" r:id="rId76" xr:uid="{F24DA0D2-73F2-440D-A303-06B1A3A4940E}"/>
+    <hyperlink ref="A77" r:id="rId77" xr:uid="{680A3251-8BAE-43FF-956C-7DCF293BFF85}"/>
+    <hyperlink ref="A78" r:id="rId78" xr:uid="{9F6FB3BE-3E48-41EC-B654-D46445215857}"/>
+    <hyperlink ref="A79" r:id="rId79" xr:uid="{9701E8B3-29E3-4B8D-9C5C-DAB41F99A7F8}"/>
+    <hyperlink ref="A80" r:id="rId80" xr:uid="{16CF49DD-C803-4F48-8554-2C5C1DE9F1C5}"/>
+    <hyperlink ref="A81" r:id="rId81" xr:uid="{A6740254-35FC-4D12-82A4-738C5C34E6C1}"/>
+    <hyperlink ref="A82" r:id="rId82" xr:uid="{72B428A4-936D-4348-AB57-CBEAD45B6D4A}"/>
+    <hyperlink ref="A83" r:id="rId83" xr:uid="{12A33443-0182-40D2-8AD0-A4EC808BED12}"/>
+    <hyperlink ref="A84" r:id="rId84" xr:uid="{0BD002D9-2516-49A0-8486-27C34590B0C4}"/>
+    <hyperlink ref="A85" r:id="rId85" xr:uid="{5188DCBD-2C37-4232-B69E-AF425334D870}"/>
+    <hyperlink ref="A86" r:id="rId86" xr:uid="{36B3A620-6C13-4D25-B3EC-06670655BF8B}"/>
+    <hyperlink ref="A87" r:id="rId87" xr:uid="{878C84D5-5C3B-43C7-8D81-DB4063F89FA2}"/>
+    <hyperlink ref="A88" r:id="rId88" xr:uid="{9CC650A1-0CED-4A19-A0F5-58F2618B9B03}"/>
+    <hyperlink ref="A89" r:id="rId89" xr:uid="{848D0E0B-89E0-4B24-8768-4B18870C31AD}"/>
+    <hyperlink ref="A90" r:id="rId90" xr:uid="{6C34B927-6AC7-4E01-AE4D-23D1143FB8BF}"/>
+    <hyperlink ref="A91" r:id="rId91" xr:uid="{1287D943-194D-45E6-B92A-F99151699C89}"/>
+    <hyperlink ref="A92" r:id="rId92" xr:uid="{990BC7C2-C34D-4E1D-BC24-027D043442FC}"/>
+    <hyperlink ref="A93" r:id="rId93" xr:uid="{8B2C5456-1D7B-4850-9DC4-30953621F01F}"/>
+    <hyperlink ref="A94" r:id="rId94" xr:uid="{C4EA1E5B-58A5-4A03-8C49-452B0A353A5C}"/>
+    <hyperlink ref="A95" r:id="rId95" xr:uid="{033FF03C-3DA2-450D-85DC-714E723F662E}"/>
+    <hyperlink ref="A96" r:id="rId96" xr:uid="{653AF040-654D-4B57-99A9-14CFACA9B22D}"/>
+    <hyperlink ref="A97" r:id="rId97" xr:uid="{8A3FD75E-8C63-4D24-A37E-659226450D1C}"/>
+    <hyperlink ref="A98" r:id="rId98" xr:uid="{79B013B0-99C1-4A6E-86D9-16FCA40476A4}"/>
+    <hyperlink ref="A99" r:id="rId99" xr:uid="{36D4CB98-6E6F-4BC0-AF6C-93F87D5FB1D3}"/>
+    <hyperlink ref="A100" r:id="rId100" xr:uid="{17C028C5-967D-46D4-8287-806994997BED}"/>
+    <hyperlink ref="A101" r:id="rId101" xr:uid="{3BE4DD32-2906-45CD-81DA-E1612ABDFE8D}"/>
+    <hyperlink ref="A102" r:id="rId102" xr:uid="{7955B116-C4A9-4AAC-A16B-D9BF81246C5C}"/>
+    <hyperlink ref="A103" r:id="rId103" xr:uid="{30E04B21-93C9-436A-A0B8-20B4B4B10A59}"/>
+    <hyperlink ref="A104" r:id="rId104" xr:uid="{94938557-FA3D-4381-87D6-96E0B24C3AF4}"/>
+    <hyperlink ref="A105" r:id="rId105" xr:uid="{7AB59452-A0B8-41B1-B0EF-DD4F8C278CCA}"/>
+    <hyperlink ref="A106" r:id="rId106" xr:uid="{F6A0F9DE-9E8A-4847-9A04-7C5E889ED68B}"/>
+    <hyperlink ref="A107" r:id="rId107" xr:uid="{4691CB9F-FFBB-4B1B-A471-B36F88566D82}"/>
+    <hyperlink ref="A108" r:id="rId108" xr:uid="{19DA13E0-4E03-4B02-800A-28130DB20EB7}"/>
+    <hyperlink ref="A109" r:id="rId109" xr:uid="{DDCB0768-A323-4FB2-B857-8E9722BE310F}"/>
+    <hyperlink ref="A110" r:id="rId110" xr:uid="{12DA1755-CFD2-44E8-83A2-AA5697D3D5E1}"/>
+    <hyperlink ref="A111" r:id="rId111" xr:uid="{92921E08-C63A-4183-AA9F-FD318C87A6B0}"/>
+    <hyperlink ref="A112" r:id="rId112" xr:uid="{D2BD6676-B58F-4CB1-8DA3-C65064264B83}"/>
+    <hyperlink ref="A113" r:id="rId113" xr:uid="{505E7D7E-B409-4712-B720-2558BA4ED615}"/>
+    <hyperlink ref="A114" r:id="rId114" xr:uid="{A72CE564-2245-40FD-AA5B-9C5E36841CBB}"/>
+    <hyperlink ref="A115" r:id="rId115" xr:uid="{D9832472-5C58-4C54-A146-7B6F5EBCDF1A}"/>
+    <hyperlink ref="A116" r:id="rId116" xr:uid="{8F1D7AAA-51D8-4A50-BFB1-A7F1EAF269D6}"/>
+    <hyperlink ref="A117" r:id="rId117" xr:uid="{F604F6E3-CAA8-4F60-9FD0-221A0AE50A15}"/>
+    <hyperlink ref="A118" r:id="rId118" xr:uid="{70A63A56-65B9-418D-A4B5-E6CEFB2B0259}"/>
+    <hyperlink ref="A119" r:id="rId119" xr:uid="{C4155367-C514-41F8-B890-189D45E56B2C}"/>
+    <hyperlink ref="A120" r:id="rId120" xr:uid="{4461EB78-3603-4752-9C85-F0DA0C04EE5D}"/>
+    <hyperlink ref="A121" r:id="rId121" xr:uid="{450FF92C-EDF4-46A2-B0B7-7E0CF2839352}"/>
+    <hyperlink ref="A122" r:id="rId122" xr:uid="{77505E9A-B159-4B8D-B73F-24C8BC8696BB}"/>
+    <hyperlink ref="A123" r:id="rId123" xr:uid="{963819F6-E06C-4ADA-BDB7-B71E6A392910}"/>
+    <hyperlink ref="A124" r:id="rId124" xr:uid="{B0254A4C-5CE9-4BFB-9835-0F769AD918B8}"/>
+    <hyperlink ref="A125" r:id="rId125" xr:uid="{43D3417F-EF07-476B-BBCB-6F1C0946D306}"/>
+    <hyperlink ref="A126" r:id="rId126" xr:uid="{3511E211-21EB-408D-B66E-27E771290176}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/check url/links.xlsx
+++ b/check url/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e9a57eaeee39cc8/Desktop/TOP_projects/check url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_5A1D9E3DE3533E7DC64A0EA402A74203E026AAB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59396708-DACA-4EB0-A4FE-D1DC4838695D}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_5A1D9E3DE3533E7DC64A0EA402A74203E026AAB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6921D8BC-C1A3-46A9-AAAE-C235B43C60BF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
     <row r="4" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{A7BB568E-2663-42CE-81BB-925CD47D3828}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{0C5A280B-7FFD-4B4B-AFF3-B8EAB9D30702}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/check url/links.xlsx
+++ b/check url/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e9a57eaeee39cc8/Desktop/TOP_projects/check url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_5A1D9E3DE3533E7DC64A0EA402A74203E026AAB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6921D8BC-C1A3-46A9-AAAE-C235B43C60BF}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="11_5A1D9E3DE3533E7DC64A0EA402A74203E026AAB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4686170A-5234-4F9D-801D-C96D5CBBF71C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>https://live-azs-nursing.pantheonsite.io/news/uarizona-nursing-edi-professional%E2%80%99s-bali-trip-will-open-doors-cultural-and-inclusive</t>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4080-dnp-final-oral-defense-alma-donohue</t>
   </si>
 </sst>
 </file>
@@ -293,7 +293,9 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -307,7 +309,7 @@
     <row r="4" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{0C5A280B-7FFD-4B4B-AFF3-B8EAB9D30702}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{0F8CB8B6-8BC2-4E91-8D62-BCA9334D941F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/check url/links.xlsx
+++ b/check url/links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e9a57eaeee39cc8/Desktop/TOP_projects/check url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thien\OneDrive\Desktop\TOP_projects\check url\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="11_5A1D9E3DE3533E7DC64A0EA402A74203E026AAB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4686170A-5234-4F9D-801D-C96D5CBBF71C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D15D18A-FFA4-4151-BFC4-A9E835CE4DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,947 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4075-phd-dissertation-defense-danielle-morgan</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4074-phd-dissertation-defense-emerald-bell</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4070-dnp-oral-defense-michael-nango</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4069-dnp-final-oral-defense-yvett-valencia</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4068-dnp-final-oral-defense-rebecca-turley</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4090-dnp-final-oral-defense-kirby-gutierrez</t>
+  </si>
   <si>
     <t>https://live-azs-nursing.pantheonsite.io/events/4080-dnp-final-oral-defense-alma-donohue</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4089-phd-final-defense-carlie-felion</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4067-dnp-final-oral-defense-jeffrey-twiss</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4064-summer-2024-convocation-awards-ceremony</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4039-gilbert-campus-tour</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4038-gilbert-campus-tour</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4037-gilbert-campus-tour</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4036-gilbert-campus-tour</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4035-gilbert-campus-tour</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3758-department-urology-fight-against-prostate-cancer-golf-benefit</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4034-gilbert-campus-tour</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3970-spring-2024-convocation-ceremony</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4015-human-trafficking-assessment-descriptive-qualitative-study</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4014-evidence-based-education-safe-medication-administration-residential-treatment-setting</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4013-perioperative-education-utilization-dexmedetomidine-surgical-patients</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4012-increasing-awareness-greenhouse-gas-emissions-related-use-inhaled-anesthetics</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4010-evaluating-proposed-federal-policy-nurse-patient-staffing-ratios-insights-state-level</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4009-using-evidenced-based-practice-increase-knowledge-and-awareness-sexually-transmitted</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3988-human-trafficking-assessment-descriptive-qualitative-study</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/4000-increasing-anesthesia-providers-understanding-emergence-agitation-veteran-population</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3567-edi-and-future-midwifery-promoting-equity-and-access</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3566-college-nursing-edi-speaker-series-edi-and-future-midwifery-promoting-equity-and-access</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3996-tucson-campus-tour</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3995-tucson-campus-tour</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3994-tucson-campus-tour</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3993-tucson-campus-tour</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3987-increasing-cultural-competency-perioperative-team-caring-transgender-patients</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3979-increasing-awareness-and-access-cervical-cancer-screening-community-based-free-clinic</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3978-nurse-anesthesiology-didactic-formatting-effects-resident-confidence-well-being-stress</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3977-education-increase-anesthesia-providers-confidence-recognizing-signs-substance-use</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3976-enhancing-anesthesia-provider-knowledge-novel-pharmacologic-agent-remimazolam</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3650-fall-2023-convocation-awards-ceremony</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3940-dnp-final-oral-defense-cameron-wylie</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3939-dnp-final-oral-defense-annie-giang</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3932-technology-aging-place</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3921-dnp-final-defense-jaclyn-ghusson</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3920-dnp-final-defense-olga-vasylchenko</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3919-cutting-edge-seminar-understanding-reproductive-health-among-immigrants-within-context</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3905-dnp-final-defense-christie-chenette</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3898-dnp-final-defense-selena-willen</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3895-dnp-final-defense-aileen-millan</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3888-dnp-final-defense-julie-tran</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3889-dnp-final-defense-lesley-ho</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3886-skeletal-cellular-senescence-aging-and-type-2-diabetes</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3885-empowering-k-12-schools-vital-role-full-time-licensed-nurses-promoting-student-well</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3877-dnp-final-defense-kathryn-satyukov</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3882-dnp-final-defense-elise-amador</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3881-dnp-final-defense-sara-mota</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3880-dnp-final-defense-joseph-chappell</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3879-dnp-final-defense-tina-eldridge</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3878-dnp-final-defense-emily-healy</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3874-dnp-final-defense-addie-day</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3875-dnp-final-defense-charity-lindholm</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3876-dnp-final-defense-maya-mcginnis</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3872-visiting-scholar-presentation-innovative-approaches-trauma-and-mental-health-research</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3871-nursing-cutting-edge-seminar-evolutionary-theory-window-cancer-dynamics</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3870-dnp-final-defense-jeeeun-jennifer-oh</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3869-dnp-final-defense-elijah-bernard</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3867-dnp-final-defense-carrie-anderson</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3868-dnp-final-defense-emily-ngunjiri</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3804-dnp-final-defense-sara-kellogg</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3753-arizona-telemedicine-program-cme-webinar-series-envenomations-intoxications-and-bites</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3856-unidos-para-prevenir-la-diabetes-y-proteger-el-coraz%C3%B3n</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3811-biosciences-toastmasters</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3786-arizona-genomics-institute-revio-launch-party</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3765-arizona-telemedicine-program-cme-webinar-series-lets-figure-samd-out-together</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3800-sarver-heart-center-grand-rounds-new-approaches-atherosclerosis</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3859-pulmonary-and-critical-care-grand-rounds-clinical-implication-pulmonary-fibrosis</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3812-biosciences-toastmasters</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3712-2023-arizona-telehealth-policy-summit</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3852-department-psychiatry-grand-rounds-treatment-resistant-depression-definitions-associated</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3801-biosciences-toastmasters</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3823-department-medicine-sleep-medicine-empowering-sleep-clinicians-more-principled</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3813-biosciences-toastmasters</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3853-department-psychiatry-grand-rounds-game-changers-transformation-us-mental-health</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3638-arizona-telemedicine-training-program-telemedicine-applications</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3779-geriatric-psychiatry-non-psychiatrists-university-arizona-and-banner-%E2%80%93-university-health</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3814-biosciences-toastmasters</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3854-department-psychiatry-grand-rounds-evolution-psycho-oncology-partnership</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3780-arizona-telemedicine-program-2023-arizona-center-rural-health-fall-webinar-series</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3815-biosciences-toastmasters</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3855-arizona-telemedicine-program-2023-arizona-center-rural-health-fall-webinar-series</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3810-biosciences-toastmasters</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3782-inaugural-university-arizona-kidney-symposium</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3830-brain-imaging-center-presents-imaging-electric-field-networks-brain</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3743-college-nursing-%E2%80%93-bsn-and-ms-mepn-pre-licensure-information-session</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3764-arizona-telemedicine-program-cme-webinar-series-impact-state-medical-licensing-college</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3817-biosciences-toastmasters</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3864-dnp-final-defense-komal-wells</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3863-dnp-final-defense-audrey-meggitt</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3862-dnp-final-defense-tarra-noble</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3861-dnp-final-defense-julia-ni</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3850-dnp-final-defense-adilene-barrios-calixtro</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3849-dnp-final-defense-patricia-duenas</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3848-dnp-final-defense-illona-izmailova</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3847-phd-dissertation-zhanette-coffee</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3846-dnp-final-defense-suzannah-gallaher</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3845-dnp-final-defense-jennifer-meyerson</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3844-dnp-final-defense-mehdi-thomas</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3843-dnp-final-defense-rinson-john</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3842-dnp-final-defense-amber-brutsche</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3841-dnp-final-defense-emma-muter</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3840-dnp-final-defense-lauren-lebowitz</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3839-dnp-final-defense-michelle-correa</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3837-dnp-final-defense-shelley-northern</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3836-dnp-final-defense-justine-jenkins</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3835-dnp-final-defense-diana-hubbell</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3833-dnp-final-defense-laura-idrissou</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3834-dnp-final-defense-samantha-merchant</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3825-dnp-final-defense-jessica-pierce</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3824-dnp-final-defense-hayley-comrie</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3822-dnp-final-defense-isabel-diamond-allen</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3809-dnp-final-defense-angelica-lopez</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3808-dnp-final-defense-schaun-konradd</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3807-dnp-final-defense-lorraine-merrill</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3806-dnp-final-defense-robin-roling</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3805-dnp-final-defense-alexandra-bakker</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3803-dnp-final-defense-jacqueline-fuentes-camacho</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3796-dnp-final-defense-cassandra-martinez</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3795-dnp-final-defense-francis-rainier-achacoso</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3794-dnp-final-defense-chelsi-taylor</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3793-dnp-final-defense-laura-burrows</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3792-dnp-final-defense-nicole-robinson</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3791-dnp-final-defense-tiffany-russell</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3790-dnp-final-defense-grace-bryant</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3789-dnp-final-defense-amy-shoop</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3788-dnp-final-defense-kimberly-heath</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3787-dnp-final-defense-joanna-tomas</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3775-homecoming-breakfast-2023</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3757-dnp-final-defense-nicole-galvan</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3756-nida-substance-use-prevention-services-primary-care-challenge-%E2%80%93-prize-winning-models</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3328-college-nursing-honors-celebration</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3755-dnp-final-defense-casey-blonde</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3750-black-faculty-speakers-series-ibrahim-thiaw-under-secretary-general-and-executive</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3742-dnp-final-defense-maddy-schneider</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3726-dnp-final-defense-aubrie-bair</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3723-dnp-final-defense-edward-ornelas</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3543-summer-2023-commencement-awards-ceremony</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3692-dnp-final-defense-julie-kotelman</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3689-dnp-final-defense-alexandra-robles</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3688-dnp-final-defense-mary-kimani</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3687-dnp-final-defense-jennifer-zimmerman</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3668-phd-dissertation-aubree-carlson</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3682-falls-prevention-fair-2023</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3679-dnp-final-defense-abby-ganske</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3663-dnp-final-defense-lisa-crowley</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3666-dnp-final-defense-summer-williams</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3651-phd-dissertation-angie-norton</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3672-faculty-candidate-presentation-deborah-gorombei-dnp-aprn-fnp-c-cns-cfrn-lncc</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3671-faculty-candidate-presentation-leila-samsam-dnp-fnp-b</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3670-faculty-candidate-presentation-laura-maurer-dnp-msn-ed-rnc-ob-fnp-c</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3667-dnp-final-defense-jenna-sobczak</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3662-associate-dean-academic-affairs-faculty-candidate-peggy-jenkins-phd-rn-cne</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3661-associate-dean-academic-affairs-faculty-candidate-kyungeh-phd-rn-faha</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3654-faculty-visiting-scholar-presentation-juyoung-park-phd</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3643-dnp-final-defense-carrie-langley</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3288-spring-2023-convocation-awards-ceremony</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3610-dnp-final-defense-brittany-brown</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3611-phd-dissertation-brittany-brown</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3609-dnp-final-defense-candice-clark</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3592-dnp-final-defense-alexandria-parker</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3586-phd-dissertation-shannon-burleson</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3587-dnp-final-defense-january-coventry</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3583-dnp-final-defense-ikenna-ogobuiro</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3580-dnp-final-defense-kelly-laughlin</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3578-dnp-final-defense-sabrina-mar-sondag</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3579-dnp-final-defense-alexa-dang</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3577-dnp-final-defense-carolyn-davis</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3576-dnp-final-defense-mary-lee-montgomery</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3571-dnp-final-defense-dwayne-kapule</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3570-dnp-final-defense-evelyn-fincher</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3569-dnp-final-defense-brad-nielson</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3568-dnp-final-defense-lee-reeves-blurton</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3559-dnp-final-defense-cholleta-menja</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3558-dnp-final-defense-alejandro-vilchis</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3557-dnp-final-defense-robert-heinze</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3556-dnp-final-defense-shane-mozingo</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3555-dnp-final-defense-oluwatosin-ijale</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3554-dnp-final-defense-naomi-koenig</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3553-dnp-final-defense-valerie-borgstrom</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3552-dnp-final-defense-mike-oney</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3551-dnp-final-defense-hiram-diaz</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3550-dnp-final-defense-jessica-curry</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3546-dnp-final-defense-courtney-smith</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3545-dnp-final-defense-emma-mcmahon</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3544-dnp-final-defense-casey-pham</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3537-dnp-final-defense-steven-baik</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3536-dnp-final-defense-jeremiah-palicka</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3534-dnp-final-defense-phillip-bullington</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3533-dnp-final-defense-tyra-hepworth</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3532-dnp-final-defense-ryan-ciantar</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3531-dnp-final-defense-cassandra-steiner</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3525-dnp-final-defense-olu-bello</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3522-role-spirituality-black-health</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3521-visibility-matters-dementia-edition</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3419-black-faculty-speaker-series-dr-ruha-benjamin</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3518-black-faculty-speakers-series-ibrahim-thiaw-under-secretary-general-and-executive</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3517-dnp-final-defense-lan-phuong-tran</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3513-national-alaska-native-american-indian-nurses-association-national-conference</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3512-intnsa-pcss-opioid-webinar</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3503-dnp-final-defense-xuefeng-shirley-zhang</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3494-dnp-final-defense-johnathan-mougin</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3493-dnp-final-defense-danielle-williams</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3481-visiting-scholar-presentation-robert-bennett-phd-cpnp-ac-ppcnp-bc-ccrn</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3478-dnp-simulation-coordinator-candidate-presentation-coy-collins-msn-fnp-bc-nrp-cen</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3470-dnp-final-defense-anastasia-connelly</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3466-cutting-edge-seminar-kelly-palmer-phd-mhs-ccrp</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3358-alumni-council-mixer</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3455-bipoc-college-nursing-monthly-meet</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3454-bipoc-college-nursing-monthly-meet</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3453-cafecito-y-community</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3452-cafecito-y-community</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3451-cafecito-y-community</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3449-dnp-final-defense-haley-simpson</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3448-fnp-specialty-coordinator-candidate-presentation-ambur-lindstrom-mette-dnp-fnp-c</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3447-fnp-specialty-coordinator-candidate-presentation-christina-nieves-dnp-aprn-fnp-bc</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3444-5th-annual-uahs-lgbtqia-national-symposium-community-fair</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3435-uarizona-dr-martin-luther-king-jr-day-service</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3192-fall-2022-convocation-awards-ceremony</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3408-dnp-final-defense-anne-jeanette-soto</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3407-dnp-final-defense-ashley-reid</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3409-dnp-final-defense-juan-velez</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3410-dnp-final-defense-laura-spall</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3406-dnp-final-defense-magda-villegas</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3405-dnp-final-defense-paula-hernandez</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3402-healthtech-connect-hybrid-program-and-networking-event</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3400-dnp-final-defense-aaron-winter</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3399-dnp-final-defense-karen-drenner</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3386-university-arizona-giving-day</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3292-homecoming-2022-wildcat-nurse-alumni-awards-breakfast</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3363-college-nursing-equity-diversity-and-inclusion-speaker-series-equity-now-leveraging</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3362-transforming-our-traumas-individual-community-and-institution</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3344-heritage-healing-practices-amita-s-nathwani-ma</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3343-heritage-healing-practices-patrisia-gonzales</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3342-heritage-healing-practices-patricia-lebensohn-md</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3341-heritage-healing-practices-midwives-center-community-based-care-reclaiming-past-heal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://live-azs-nursing.pantheonsite.io/events/3340-political-determinants-health-%E2%80%93-talk-and-book-signing-daniel-dawes </t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3339-tucson-pride-parade</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3326-cutting-edge-seminar-presentation-addressing-collaborative-research-partnership-support</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3311-5th-annual-neuroscience-symposium</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3264-faculty-candidate-presentation-nancy-pike-phd-rn-fnp-bc-cpnp-pcac-faha-faan</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3256-edi-lunch-and-learn-power-experiential-learning-and-cultural-immersion</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3255-equity-diversity-inclusion-nursing-committee</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3254-equity-diversity-inclusion-nursing-committee</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3253-equity-diversity-inclusion-nursing-committee</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3252-equity-diversity-inclusion-nursing-committee</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/2691-summer-2022-commencement-ceremony</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3243-university-arizona-cancer-centers-cancer-research-present-and-future-conference</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3240-bipoc-college-nursing-monthly-meet</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3239-bipoc-college-nursing-monthly-meet</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3238-bipoc-college-nursing-monthly-meet</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3237-cafecito-y-communidad</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3235-cafecito-y-communidad</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3236-cafecito-y-communidad</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3232-welcome-back-college-nursing-equity-diversity-inclusion-edi-open-house</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3227-faculty-candidate-presentation-rachel-knight-dnp-agacnp-bc</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3223-faculty-candidate-presentation-jennifer-hunter-dnp-agacnp-c</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3220-dnp-final-defense-belinda-humes</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3219-dnp-final-defense-jessica-mattia-barry</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3218-dnp-final-defense-zainab-jimada</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3217-dnp-final-defense-alexandra-norrlof</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3216-faculty-candidate-presentation-john-sparks-dnp-pmhnp-bc-fnp-bc</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3214-dnp-final-defense-karen-garcia</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3211-dnp-final-defense-abbigael-simpson</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3210-dnp-final-defense-sherri-duarte</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3209-dnp-project-dissertation-ana-marie-rivera</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3208-phd-dissertation-defense-sally-martens</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3206-pain-management-and-risks-associated-sud</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3197-dual-degree-final-defense-christine-platt</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3191-phd-dissertation-defense-jennifer-montjoy</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3169-youth-mental-youth-disengagement-mental-health-barriers-health-therapy-%E2%80%93-examining</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3170-solidarity-and-lgbtq-liberation</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/2809-spring-2022-convocation-ceremony</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/2978-alumni-council-mixer</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3093-faculty-candidate-presentation-julienne-n-rutherford-phd</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/2912-be-here-belong-using-data-inform-stem-advising</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3081-faculty-candidate-presentation-anna-schwartz-phd-fnp-bc-faan</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3060-faculty-candidate-presentation-shannon-halloway-phd-rn-faha</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3058-writing-coach-open-hours</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3057-writing-coach-open-hours</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3056-writing-coach-open-hours</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3055-writing-coach-open-hours</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3054-writing-coach-open-hours</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3053-writing-coach-open-hours</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3052-writing-coach-open-hours</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3051-writing-coach-open-hours</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3038-uahs-edi-workshops-test-taking-stress-management</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3037-uahs-edi-workshops-test-taking-stress-management</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3036-uahs-edi-workshops-test-taking-stress-management</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3035-uahs-edi-workshops-health-science-exam-prep-101</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3034-uahs-edi-workshops-md-application-personal-statements-101</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3033-uahs-edi-workshops-key-study-strategies-time-management</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3032-uahs-edi-workshops-key-study-strategies-time-management</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3031-uahs-edi-workshops-mcat-bootcamp</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3030-uahs-edi-workshops-mcat-bootcamp</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3029-uahs-edi-workshops-mcat-bootcamp</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3028-uahs-edi-workshops-test-taking-stress-management</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3027-uahs-edi-workshops-test-taking-stress-management</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3026-uahs-edi-workshops-test-taking-stress-management</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/3019-university-arizona-college-nursing-giving-day</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/2977-4th-annual-uahs-lgbtq-national-symposium-community-fair</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/2914-unconscious-bias-discussion</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/2913-culturally-competent-responsive-discussion</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/2910-allyship-stress-management</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/2909-cultivating-your-understanding-privilege-oppression-and-difference</t>
+  </si>
+  <si>
+    <t>https://live-azs-nursing.pantheonsite.io/events/2960-faculty-candidate-presentation-d-anthony-tolentino</t>
   </si>
 </sst>
 </file>
@@ -44,15 +978,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -60,14 +1000,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -84,10 +1062,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -291,26 +1265,1890 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection sqref="A1:A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="93.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{0F8CB8B6-8BC2-4E91-8D62-BCA9334D941F}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{61648926-BB78-4097-8603-8E4149A56207}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{4A9ABE6A-8B80-4CB3-9C87-3B87C7A53D10}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{49310BCF-B816-4DA1-9D6C-51994DFD6FED}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{1C67EADC-0C3F-49BC-9DFD-A26D2E355860}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{44295E6E-3066-4FDB-99AF-56550889903F}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{57F9986E-E050-4BBB-993E-73F328797F7F}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{627012AC-C5E9-4B07-9D91-21E95648AC72}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{32083D1C-6CC2-4E00-B4C7-370E3CAE4633}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{F12F28C9-C232-44DA-9547-4E9241658824}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{B5FCC823-8489-494F-9F80-DFCE8A989ED6}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{3F5E8B7F-E267-4CEE-BE6C-B4341A0AF225}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{F3007292-40BB-46B4-A673-465F71ADCF4A}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{C4F1DC42-AB0A-4DC1-849F-20F1B1C46A5B}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{95EF6240-AF19-4821-93B8-33A2C1C276DB}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{233B9E82-BDC1-49D5-B93F-88B783069994}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{0A582FC9-DB8B-424C-861B-39A1C04C70FE}"/>
+    <hyperlink ref="A17" r:id="rId17" xr:uid="{BC4CFB9B-979D-4DA3-B145-DBDB890D48AC}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{3A564048-6FC7-4DE4-B839-7DDD6692DAA8}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{5912E487-2A0D-4771-BD1E-B2D68B082E7D}"/>
+    <hyperlink ref="A20" r:id="rId20" xr:uid="{2DC3924A-E642-455C-990F-EAE0D24D6A44}"/>
+    <hyperlink ref="A21" r:id="rId21" xr:uid="{5A7C351D-98AA-4B59-8F0B-0189709C78C0}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{293FE3B8-AB2B-45B8-B3A0-6746A5CC627E}"/>
+    <hyperlink ref="A23" r:id="rId23" xr:uid="{7E1ABD4F-C0D9-4830-B3C6-13F084CEEDA0}"/>
+    <hyperlink ref="A24" r:id="rId24" xr:uid="{8B997215-87AF-4C04-B0A2-E0E011F582C0}"/>
+    <hyperlink ref="A25" r:id="rId25" xr:uid="{2398CE6B-C0D7-4EC6-B710-982EA9CDDE0F}"/>
+    <hyperlink ref="A26" r:id="rId26" xr:uid="{DD139B30-DDFE-4FE7-86AD-3772D03B8EFE}"/>
+    <hyperlink ref="A27" r:id="rId27" xr:uid="{446CDEEE-4AA2-42EC-9E7D-D146E6D953CD}"/>
+    <hyperlink ref="A28" r:id="rId28" xr:uid="{861CEDDF-C6A5-4C8E-BAC3-442612A78DBB}"/>
+    <hyperlink ref="A29" r:id="rId29" xr:uid="{D5681617-2DA9-4C11-BF45-EE3C115FD05E}"/>
+    <hyperlink ref="A30" r:id="rId30" xr:uid="{CF8511A0-3CC7-40C3-8299-BB8A1B01B511}"/>
+    <hyperlink ref="A31" r:id="rId31" xr:uid="{62234F74-D9F4-41C4-97C3-F8E6A8545830}"/>
+    <hyperlink ref="A32" r:id="rId32" xr:uid="{80736C1E-AC6D-42F4-AA70-ACAD7926132E}"/>
+    <hyperlink ref="A33" r:id="rId33" xr:uid="{89C52AAA-008A-47C1-90B5-4F486830F01B}"/>
+    <hyperlink ref="A34" r:id="rId34" xr:uid="{D76035CC-4DFF-4F7E-82BA-83CD34783F47}"/>
+    <hyperlink ref="A35" r:id="rId35" xr:uid="{09842577-093E-41F5-9C08-447C7AC2F3A6}"/>
+    <hyperlink ref="A36" r:id="rId36" xr:uid="{B7A856E0-0B66-4E5C-A1CC-0A3EBC1BDC84}"/>
+    <hyperlink ref="A37" r:id="rId37" xr:uid="{7C33E5DA-5430-4220-9BE9-20A08597BEDD}"/>
+    <hyperlink ref="A38" r:id="rId38" xr:uid="{4729ADB9-C060-43B9-86C8-53E9955C480B}"/>
+    <hyperlink ref="A39" r:id="rId39" xr:uid="{20369049-02E5-48DC-8125-5ABC6D8D6594}"/>
+    <hyperlink ref="A40" r:id="rId40" xr:uid="{802D0B90-7156-4CF5-8C19-AE548E119E79}"/>
+    <hyperlink ref="A41" r:id="rId41" xr:uid="{62F13A65-A0F6-4B82-BD81-5B6B6EF5674F}"/>
+    <hyperlink ref="A42" r:id="rId42" xr:uid="{559C38AA-F664-4BA0-AF62-D7BBC4F366E3}"/>
+    <hyperlink ref="A43" r:id="rId43" xr:uid="{5D48C0C3-7AAD-408D-BACB-749CAE4DDA46}"/>
+    <hyperlink ref="A44" r:id="rId44" xr:uid="{A6224C7A-DDE4-4BDA-9F1E-7F7D71EAFDE8}"/>
+    <hyperlink ref="A45" r:id="rId45" xr:uid="{E636DD50-E904-40F0-9303-394B380D7778}"/>
+    <hyperlink ref="A46" r:id="rId46" xr:uid="{27C85DAA-609B-47DB-8346-400E3B174E75}"/>
+    <hyperlink ref="A47" r:id="rId47" xr:uid="{F45558EA-88E6-484E-B579-DA6D1E09BD5E}"/>
+    <hyperlink ref="A48" r:id="rId48" xr:uid="{72FEB01F-AECE-4805-BF90-3B5173851BF0}"/>
+    <hyperlink ref="A49" r:id="rId49" xr:uid="{C18D4CC5-190F-40C4-A8DF-6F9D63EB5148}"/>
+    <hyperlink ref="A50" r:id="rId50" xr:uid="{C6524BD6-ACC7-4227-BA28-7406D08D2423}"/>
+    <hyperlink ref="A51" r:id="rId51" xr:uid="{444EFC4F-356D-4F85-85B7-05EA6FFB184D}"/>
+    <hyperlink ref="A52" r:id="rId52" xr:uid="{D9CC1788-3D3E-4E2F-8ACD-EF8EDC30E56F}"/>
+    <hyperlink ref="A53" r:id="rId53" xr:uid="{4E7F02B7-4F6F-47B1-BDEE-8539E1B45886}"/>
+    <hyperlink ref="A54" r:id="rId54" xr:uid="{BD456ABE-68B0-469D-87FE-8E934C94722A}"/>
+    <hyperlink ref="A55" r:id="rId55" xr:uid="{001AD2AE-AEEA-4825-9005-A26070CB1A43}"/>
+    <hyperlink ref="A56" r:id="rId56" xr:uid="{76FF4EF8-60F9-4535-921B-239D1F84E173}"/>
+    <hyperlink ref="A57" r:id="rId57" xr:uid="{73781D94-2B80-4151-9B8E-DCDEEF3966C0}"/>
+    <hyperlink ref="A58" r:id="rId58" xr:uid="{09F01420-FE81-4F44-AC3F-02E7383E80CE}"/>
+    <hyperlink ref="A59" r:id="rId59" xr:uid="{A8553049-C796-43A0-BB8F-3F457C5EBD46}"/>
+    <hyperlink ref="A60" r:id="rId60" xr:uid="{52A01B33-5675-4CD7-A713-59EDB7287526}"/>
+    <hyperlink ref="A61" r:id="rId61" xr:uid="{4D22180D-7CA1-49F7-B2B7-DA592D9F4E20}"/>
+    <hyperlink ref="A62" r:id="rId62" xr:uid="{4B912B7E-07F6-450F-AF3D-0CFA5C5C61D8}"/>
+    <hyperlink ref="A63" r:id="rId63" xr:uid="{E54B33DF-F763-4DA2-9149-C01CA7F9D3E7}"/>
+    <hyperlink ref="A64" r:id="rId64" xr:uid="{2E90F2B8-2681-4DCD-B176-3F969EE89354}"/>
+    <hyperlink ref="A65" r:id="rId65" xr:uid="{A9039DF3-D797-4D58-92C5-18D052D423CA}"/>
+    <hyperlink ref="A66" r:id="rId66" xr:uid="{03F224CA-AA0B-48C9-BC8F-60709DEC9EAB}"/>
+    <hyperlink ref="A67" r:id="rId67" xr:uid="{5CC249C7-BA52-48CB-9C5E-7B5CB5522F0F}"/>
+    <hyperlink ref="A68" r:id="rId68" xr:uid="{D5D7F46A-DA90-4A36-8AB5-E3F653E33C4A}"/>
+    <hyperlink ref="A69" r:id="rId69" xr:uid="{20BCA2A0-B81C-4683-B970-F5E04FDA113A}"/>
+    <hyperlink ref="A70" r:id="rId70" xr:uid="{E49BB4A8-6AA6-4A60-A52D-36A8C4DE069D}"/>
+    <hyperlink ref="A71" r:id="rId71" xr:uid="{D08C6118-8C47-48EC-8968-CAACEB2F4618}"/>
+    <hyperlink ref="A72" r:id="rId72" xr:uid="{A2109C36-60FD-4F5C-888A-A7FB135B126E}"/>
+    <hyperlink ref="A73" r:id="rId73" xr:uid="{A0CBB969-B13B-4781-85F9-325B3FE73994}"/>
+    <hyperlink ref="A74" r:id="rId74" xr:uid="{877CA0A5-6E09-4EDE-8307-51413B22750B}"/>
+    <hyperlink ref="A75" r:id="rId75" xr:uid="{1F174ACE-EE8E-4F14-9EAD-11E890E26DFC}"/>
+    <hyperlink ref="A76" r:id="rId76" xr:uid="{870662DE-A031-40A5-B0A2-2E5F4323054E}"/>
+    <hyperlink ref="A77" r:id="rId77" xr:uid="{50233F97-E29A-4980-B236-B8D48D5258A2}"/>
+    <hyperlink ref="A78" r:id="rId78" xr:uid="{1CB16CB5-89B6-4E93-9CC1-F051EEE49226}"/>
+    <hyperlink ref="A79" r:id="rId79" xr:uid="{9B143B57-BC55-453C-8D91-8DB8D509315D}"/>
+    <hyperlink ref="A80" r:id="rId80" xr:uid="{39AB22CD-AEE7-4594-AF46-98137A6D92E3}"/>
+    <hyperlink ref="A81" r:id="rId81" xr:uid="{8AE9B482-201D-4E83-A7EE-0D824F0A42C0}"/>
+    <hyperlink ref="A82" r:id="rId82" xr:uid="{18BDBE78-994E-402B-A9AE-4BA41C9DFB80}"/>
+    <hyperlink ref="A83" r:id="rId83" xr:uid="{F00D814D-2E7D-49BF-BCC6-DC54C271216B}"/>
+    <hyperlink ref="A84" r:id="rId84" xr:uid="{EB382031-E436-4A25-8D2E-1C5C344847C3}"/>
+    <hyperlink ref="A85" r:id="rId85" xr:uid="{ABAD34D5-8C1E-4B1D-B56F-333282AD4F46}"/>
+    <hyperlink ref="A86" r:id="rId86" xr:uid="{EB1A6DBC-3528-4CD0-B414-B16B9720C877}"/>
+    <hyperlink ref="A87" r:id="rId87" xr:uid="{4DA612AB-6812-4EE1-A461-1266A20C4F72}"/>
+    <hyperlink ref="A88" r:id="rId88" xr:uid="{8EB83D90-DF9C-4C52-A958-D0438DC0F047}"/>
+    <hyperlink ref="A89" r:id="rId89" xr:uid="{37637D99-6927-448D-8542-B00651ED7F67}"/>
+    <hyperlink ref="A90" r:id="rId90" xr:uid="{82AF7A20-7A13-43EA-9F55-70880F5E4BEF}"/>
+    <hyperlink ref="A91" r:id="rId91" xr:uid="{D40DCAD0-1CF7-4BDF-BAB6-E45AB67DAD0E}"/>
+    <hyperlink ref="A92" r:id="rId92" xr:uid="{1D16D598-C3F9-4BE3-A18E-5D779EA87501}"/>
+    <hyperlink ref="A93" r:id="rId93" xr:uid="{13382247-4014-4D44-AC1C-5DFA78C6B2C1}"/>
+    <hyperlink ref="A94" r:id="rId94" xr:uid="{8C7AA2AD-8CF2-45A3-BA06-0510A5220D9F}"/>
+    <hyperlink ref="A95" r:id="rId95" xr:uid="{9F71A397-9B47-43E6-96C4-400E892F778F}"/>
+    <hyperlink ref="A96" r:id="rId96" xr:uid="{29853613-D588-4A90-BFC4-6E8B2B954D33}"/>
+    <hyperlink ref="A97" r:id="rId97" xr:uid="{AE253A6F-7F17-4CCC-934D-2FDFCADC2847}"/>
+    <hyperlink ref="A98" r:id="rId98" xr:uid="{7582B7B8-E4C7-4AB7-9C32-492D0B5B2820}"/>
+    <hyperlink ref="A99" r:id="rId99" xr:uid="{C32D97FF-B383-41A4-BE2E-F52984C33CD9}"/>
+    <hyperlink ref="A100" r:id="rId100" xr:uid="{46B58E69-9028-4088-B80E-5C5496716E09}"/>
+    <hyperlink ref="A101" r:id="rId101" xr:uid="{9C5179D3-6CCD-4042-917D-1F3EE45C4949}"/>
+    <hyperlink ref="A102" r:id="rId102" xr:uid="{FFBA14AF-5201-403F-9FF1-1CD3E41B8A7F}"/>
+    <hyperlink ref="A103" r:id="rId103" xr:uid="{5D1272E0-ABE3-4FD0-BFA2-2E95C0028657}"/>
+    <hyperlink ref="A104" r:id="rId104" xr:uid="{54CC01B8-FC33-48BB-A541-3AC37C75D844}"/>
+    <hyperlink ref="A105" r:id="rId105" xr:uid="{F66C5A82-A685-4E7C-AA0E-7DD63DE66B65}"/>
+    <hyperlink ref="A106" r:id="rId106" xr:uid="{24FD62D7-E79A-4549-8F0D-596BB8925F9F}"/>
+    <hyperlink ref="A107" r:id="rId107" xr:uid="{6104D72F-A8EC-4940-858F-D99A44BE9191}"/>
+    <hyperlink ref="A108" r:id="rId108" xr:uid="{55D863FE-3C77-4E12-8A8B-04AD3CCD7EB6}"/>
+    <hyperlink ref="A109" r:id="rId109" xr:uid="{E24DF41A-0B6D-4595-9827-ACA8CE13D155}"/>
+    <hyperlink ref="A110" r:id="rId110" xr:uid="{A0928E13-0824-4679-8352-4A7B51A2EC79}"/>
+    <hyperlink ref="A111" r:id="rId111" xr:uid="{969C7A4D-F272-4E46-9970-ECC2C865C772}"/>
+    <hyperlink ref="A112" r:id="rId112" xr:uid="{96E53855-FF17-4D1A-B77D-8DC8385A4562}"/>
+    <hyperlink ref="A113" r:id="rId113" xr:uid="{12F4824C-8B46-4E40-9D45-8A68D36E312B}"/>
+    <hyperlink ref="A114" r:id="rId114" xr:uid="{708DD3BD-16CC-4876-9E8D-F4A709736C52}"/>
+    <hyperlink ref="A115" r:id="rId115" xr:uid="{BB10B2EC-8AAD-4A35-AC08-5F1C72368118}"/>
+    <hyperlink ref="A116" r:id="rId116" xr:uid="{7C1608B2-380D-423E-8911-8A832EE15D5D}"/>
+    <hyperlink ref="A117" r:id="rId117" xr:uid="{8F26683A-6938-4E60-9EDA-8A376350EC47}"/>
+    <hyperlink ref="A118" r:id="rId118" xr:uid="{6C4C669D-81EF-43AA-844C-AEF2A8C42FCB}"/>
+    <hyperlink ref="A119" r:id="rId119" xr:uid="{FEA87AFD-5602-46DA-BA35-4C74643DE1F0}"/>
+    <hyperlink ref="A120" r:id="rId120" xr:uid="{387F8387-5211-4557-A8FD-3F504B628C5C}"/>
+    <hyperlink ref="A121" r:id="rId121" xr:uid="{5B2640FD-E79B-49C7-A582-5FB34371BCAF}"/>
+    <hyperlink ref="A122" r:id="rId122" xr:uid="{B136587B-0888-4143-8022-A06131E30685}"/>
+    <hyperlink ref="A123" r:id="rId123" xr:uid="{9DE89FC7-60FD-4E77-8175-6F3AA6335B61}"/>
+    <hyperlink ref="A124" r:id="rId124" xr:uid="{4C5731CE-3499-4414-BA78-5E5AA8841F03}"/>
+    <hyperlink ref="A125" r:id="rId125" xr:uid="{E76A7AC0-18DD-4750-AEE2-F194CE09357C}"/>
+    <hyperlink ref="A126" r:id="rId126" xr:uid="{8ECD7073-1626-41B0-B21B-A8FA63BED2F1}"/>
+    <hyperlink ref="A127" r:id="rId127" xr:uid="{C23639B6-4E09-4B21-8687-75F738DFDF6D}"/>
+    <hyperlink ref="A128" r:id="rId128" xr:uid="{66996538-EC0D-4DC0-8F09-71464F3DF1C9}"/>
+    <hyperlink ref="A129" r:id="rId129" xr:uid="{078C2E09-BBA3-483C-A9A6-46518A596F51}"/>
+    <hyperlink ref="A130" r:id="rId130" xr:uid="{E77DE44C-E8C3-47B9-9471-C1A857BB92D1}"/>
+    <hyperlink ref="A131" r:id="rId131" xr:uid="{720DCC45-643A-4C52-BB13-2E091FD5FE2F}"/>
+    <hyperlink ref="A132" r:id="rId132" xr:uid="{1563296E-141F-4AD2-8647-2BF0F4A3D5BE}"/>
+    <hyperlink ref="A133" r:id="rId133" xr:uid="{C26FB984-3D9C-436E-8C22-1999B3675953}"/>
+    <hyperlink ref="A134" r:id="rId134" xr:uid="{3197D92A-316B-4B4F-8EAF-25BDC332D4DC}"/>
+    <hyperlink ref="A135" r:id="rId135" xr:uid="{115F5FAB-0CA2-494B-84BF-305CEFF4B398}"/>
+    <hyperlink ref="A136" r:id="rId136" xr:uid="{39621369-CE49-4474-B700-AB0692A4F01B}"/>
+    <hyperlink ref="A137" r:id="rId137" xr:uid="{9BEDBB79-80E4-4F64-B253-03DB2F590A58}"/>
+    <hyperlink ref="A138" r:id="rId138" xr:uid="{B9A2AD3A-07F8-4903-9F7F-476C07E2AA23}"/>
+    <hyperlink ref="A139" r:id="rId139" xr:uid="{77FFFE15-B58D-43C6-B5EB-5340D6398E1D}"/>
+    <hyperlink ref="A140" r:id="rId140" xr:uid="{B798BE9C-B210-4ADC-BB27-4CD02B7E572C}"/>
+    <hyperlink ref="A141" r:id="rId141" xr:uid="{D0745713-48CD-47E9-B59D-C8FD53CFA946}"/>
+    <hyperlink ref="A142" r:id="rId142" xr:uid="{2D3CD637-1A21-4224-BA63-C46259EF5047}"/>
+    <hyperlink ref="A143" r:id="rId143" xr:uid="{3AFF8D59-3110-4198-B573-6DE274064BE1}"/>
+    <hyperlink ref="A144" r:id="rId144" xr:uid="{4C0B28CD-3137-40BA-9830-613BD4906A36}"/>
+    <hyperlink ref="A145" r:id="rId145" xr:uid="{744D7A7F-314C-417A-8F78-709D553A62DC}"/>
+    <hyperlink ref="A146" r:id="rId146" xr:uid="{4BC2DBD9-1A32-4B3F-A2C8-E2C274134C83}"/>
+    <hyperlink ref="A147" r:id="rId147" xr:uid="{AFA09DF0-A23C-4EF9-BED0-D1C86FA4A478}"/>
+    <hyperlink ref="A148" r:id="rId148" xr:uid="{52DA2AA3-95F2-4BA0-977F-0D62C3D28592}"/>
+    <hyperlink ref="A149" r:id="rId149" xr:uid="{9DB13B72-C768-4888-AD6A-BE4CA4C0C477}"/>
+    <hyperlink ref="A150" r:id="rId150" xr:uid="{155BD864-DA4C-4D19-9EEC-DE76AF3359B4}"/>
+    <hyperlink ref="A151" r:id="rId151" xr:uid="{72F2F879-273D-46EB-B24D-541462882CFC}"/>
+    <hyperlink ref="A152" r:id="rId152" xr:uid="{4B6C9123-43CA-42C2-A6EA-1A8D7346CC79}"/>
+    <hyperlink ref="A153" r:id="rId153" xr:uid="{40684BE5-C0D6-4B0A-A2B1-76E4A68BC2D7}"/>
+    <hyperlink ref="A154" r:id="rId154" xr:uid="{8D8FB6AC-C9D8-417D-B637-1BD37C73008F}"/>
+    <hyperlink ref="A155" r:id="rId155" xr:uid="{6D3403C2-86FE-4E89-997E-1AFDC3374D94}"/>
+    <hyperlink ref="A156" r:id="rId156" xr:uid="{8C9DCBF2-797E-487E-ABB7-53EE51E003CF}"/>
+    <hyperlink ref="A157" r:id="rId157" xr:uid="{647E2764-DFB9-471F-A906-1579011F1153}"/>
+    <hyperlink ref="A158" r:id="rId158" xr:uid="{6259A9D7-5F4A-47F9-BF9A-E54DF72E65E8}"/>
+    <hyperlink ref="A159" r:id="rId159" xr:uid="{A9E30335-CCEF-4FD9-AD22-78B0EA49C59E}"/>
+    <hyperlink ref="A160" r:id="rId160" xr:uid="{04384F3D-2F5B-47CE-BED7-010A5DA85A6C}"/>
+    <hyperlink ref="A161" r:id="rId161" xr:uid="{BD620AE7-1CC0-4702-AE1B-9DCDAB6311D8}"/>
+    <hyperlink ref="A162" r:id="rId162" xr:uid="{76A73B01-FBCE-4BDA-BE7A-01D39F0C6D84}"/>
+    <hyperlink ref="A163" r:id="rId163" xr:uid="{1D4B530D-FC03-49C8-871B-2F72752852D8}"/>
+    <hyperlink ref="A164" r:id="rId164" xr:uid="{89482A0F-BD56-41A9-BE8F-96E4328E3FC3}"/>
+    <hyperlink ref="A165" r:id="rId165" xr:uid="{3340CE24-5E31-4543-8215-A293A011760C}"/>
+    <hyperlink ref="A166" r:id="rId166" xr:uid="{33A7D54F-F77F-45FD-9298-35D7810710A8}"/>
+    <hyperlink ref="A167" r:id="rId167" xr:uid="{76165FBF-E1CC-4C93-8FD6-61EEBCF16C4E}"/>
+    <hyperlink ref="A168" r:id="rId168" xr:uid="{314975EC-003A-4519-8C6B-A032A1257301}"/>
+    <hyperlink ref="A169" r:id="rId169" xr:uid="{93D50589-29F7-4E23-B7B9-324FA64B33A7}"/>
+    <hyperlink ref="A170" r:id="rId170" xr:uid="{886B6A0B-03F1-4575-B0C8-97B8F1D41A48}"/>
+    <hyperlink ref="A171" r:id="rId171" xr:uid="{860ED03E-3A68-4150-80A1-659931FE2D61}"/>
+    <hyperlink ref="A172" r:id="rId172" xr:uid="{53C5F4D9-6DC4-4CB0-9529-8A6534B29641}"/>
+    <hyperlink ref="A173" r:id="rId173" xr:uid="{1B6001E8-AD24-4259-842E-61C3CA49EE25}"/>
+    <hyperlink ref="A174" r:id="rId174" xr:uid="{5841EA96-D05C-4FBE-90E7-00520A4B15E5}"/>
+    <hyperlink ref="A175" r:id="rId175" xr:uid="{F7BC2469-938C-4B20-94F1-55F7114A9B6E}"/>
+    <hyperlink ref="A176" r:id="rId176" xr:uid="{DDFDB23B-67F5-4CD8-8F54-37DFBD98A0AC}"/>
+    <hyperlink ref="A177" r:id="rId177" xr:uid="{5DD2B2DC-AED6-4F26-B651-793AD067D3B7}"/>
+    <hyperlink ref="A178" r:id="rId178" xr:uid="{316A9AEB-8D40-4011-AB8C-7CB6876A7A30}"/>
+    <hyperlink ref="A179" r:id="rId179" xr:uid="{7E89DC89-1AA4-4107-B12E-A8BFF7FCE9C6}"/>
+    <hyperlink ref="A180" r:id="rId180" xr:uid="{92244A1D-1830-4F02-8EA4-BAADD51F897F}"/>
+    <hyperlink ref="A181" r:id="rId181" xr:uid="{17E6E8BB-E6CC-4F08-8A28-EDAEBA9EBF9D}"/>
+    <hyperlink ref="A182" r:id="rId182" xr:uid="{4804EF7B-9294-4B80-8432-78976C8B4040}"/>
+    <hyperlink ref="A183" r:id="rId183" xr:uid="{9036FFCF-619C-43BD-9E49-BF6625311841}"/>
+    <hyperlink ref="A184" r:id="rId184" xr:uid="{FC6629BD-E03A-497E-BF90-4BC05E054ED6}"/>
+    <hyperlink ref="A185" r:id="rId185" xr:uid="{487EA120-5009-488E-9EFC-D6674192518B}"/>
+    <hyperlink ref="A186" r:id="rId186" xr:uid="{6DF52089-6E39-473D-B084-3915C06113D5}"/>
+    <hyperlink ref="A187" r:id="rId187" xr:uid="{9AFA0C8A-24BB-45BC-BC7A-13A7277F40CC}"/>
+    <hyperlink ref="A188" r:id="rId188" xr:uid="{03AAD736-E73C-4EAF-B52E-521F7AECB93B}"/>
+    <hyperlink ref="A189" r:id="rId189" xr:uid="{030AE678-9A32-496B-8D09-54042D8D4989}"/>
+    <hyperlink ref="A190" r:id="rId190" xr:uid="{1E1C492B-FCBB-47E0-B545-2ED38B0B17E6}"/>
+    <hyperlink ref="A191" r:id="rId191" xr:uid="{A1D8DD19-3140-47E2-A263-21B3BBEC82BE}"/>
+    <hyperlink ref="A192" r:id="rId192" xr:uid="{260A7423-8C86-41B7-A355-504B12293D9D}"/>
+    <hyperlink ref="A193" r:id="rId193" xr:uid="{FD58F767-033A-4E41-AC1D-82BF7B94BC68}"/>
+    <hyperlink ref="A194" r:id="rId194" xr:uid="{937E934A-F5A6-48D9-9B0B-5F90603F7427}"/>
+    <hyperlink ref="A195" r:id="rId195" xr:uid="{16F6E149-BCCF-4532-A32F-EB5C5410889E}"/>
+    <hyperlink ref="A196" r:id="rId196" xr:uid="{69D84116-1134-4505-91EF-662020DCC2DE}"/>
+    <hyperlink ref="A197" r:id="rId197" xr:uid="{F0514688-D287-4B0C-8404-B73BACBC1C47}"/>
+    <hyperlink ref="A198" r:id="rId198" xr:uid="{653CB38A-2E2B-4699-A357-68E720F42C7D}"/>
+    <hyperlink ref="A199" r:id="rId199" xr:uid="{C4537602-8E73-4E27-BBFB-80FB63FEB495}"/>
+    <hyperlink ref="A200" r:id="rId200" xr:uid="{9C29A11E-9F52-4C8D-B1A2-C2384CFC6BCF}"/>
+    <hyperlink ref="A201" r:id="rId201" xr:uid="{78869F83-EDDB-4AF5-A11C-DBD0EF05531D}"/>
+    <hyperlink ref="A202" r:id="rId202" xr:uid="{6EDB20F8-42EF-45C9-B6A1-1FA32C2344FE}"/>
+    <hyperlink ref="A203" r:id="rId203" xr:uid="{EDE54617-DA6C-452D-96FB-B12410159749}"/>
+    <hyperlink ref="A204" r:id="rId204" xr:uid="{F992D40C-4C69-4413-9F43-487BBA89B61D}"/>
+    <hyperlink ref="A205" r:id="rId205" xr:uid="{F75A056F-5916-4B31-AEE3-5F12E0338888}"/>
+    <hyperlink ref="A206" r:id="rId206" xr:uid="{E46C2AD4-4EC5-41C7-B972-B96CB15BCCBB}"/>
+    <hyperlink ref="A207" r:id="rId207" xr:uid="{C858E5F4-ECC8-41AD-A743-C53E398CB049}"/>
+    <hyperlink ref="A208" r:id="rId208" xr:uid="{8CEC28B1-624A-4688-BBD3-8E5F448A1C5F}"/>
+    <hyperlink ref="A209" r:id="rId209" xr:uid="{6196AFF8-EB77-441C-8464-10F7E3903212}"/>
+    <hyperlink ref="A210" r:id="rId210" xr:uid="{5FF5298E-6729-4F83-B7AB-DEA42EA40385}"/>
+    <hyperlink ref="A211" r:id="rId211" xr:uid="{50F6A613-248B-47EE-9AB5-E8D8F40AA2A5}"/>
+    <hyperlink ref="A212" r:id="rId212" xr:uid="{2637707E-E2F6-44E2-B6C9-8DE5F0185E12}"/>
+    <hyperlink ref="A213" r:id="rId213" xr:uid="{8AAB0919-075C-4A00-9A3A-FA207B2F17F7}"/>
+    <hyperlink ref="A214" r:id="rId214" xr:uid="{6CA8D2DC-4EB6-4974-8FF6-DFDDB1877B60}"/>
+    <hyperlink ref="A215" r:id="rId215" xr:uid="{6E349B18-56D5-4A10-BD18-D6A599F860DF}"/>
+    <hyperlink ref="A216" r:id="rId216" xr:uid="{DC70E3B6-6268-412A-9902-9E04B488FECB}"/>
+    <hyperlink ref="A217" r:id="rId217" xr:uid="{9757703E-EAB7-4C96-9987-9573718CCF51}"/>
+    <hyperlink ref="A218" r:id="rId218" xr:uid="{1FEED1D1-BE7E-4759-AFEE-A88F433BE2D8}"/>
+    <hyperlink ref="A219" r:id="rId219" xr:uid="{D9FBBC1D-6720-41DD-BB99-EF81A0EC491F}"/>
+    <hyperlink ref="A220" r:id="rId220" xr:uid="{09603E6E-B1D9-4EBD-9B97-54738569D158}"/>
+    <hyperlink ref="A221" r:id="rId221" xr:uid="{C4853A14-16B5-4E0C-A777-6882594CCD5F}"/>
+    <hyperlink ref="A222" r:id="rId222" xr:uid="{B6EFC1FC-EFFF-4224-AD36-CEBCD4FF6D15}"/>
+    <hyperlink ref="A223" r:id="rId223" xr:uid="{4D0FA5CD-5426-4216-BC33-5F690D338128}"/>
+    <hyperlink ref="A224" r:id="rId224" xr:uid="{94AD4C1D-FD75-45A7-89EA-13664B954CC1}"/>
+    <hyperlink ref="A225" r:id="rId225" xr:uid="{1D43CCAD-DA04-4CB6-9D15-A3DD7E826744}"/>
+    <hyperlink ref="A226" r:id="rId226" xr:uid="{0E5CB8B8-F2A3-42A2-BAEA-BFE496973EA2}"/>
+    <hyperlink ref="A227" r:id="rId227" xr:uid="{34E39F2C-3D84-464E-AC47-B8F423615B72}"/>
+    <hyperlink ref="A228" r:id="rId228" xr:uid="{9758B2AC-1F06-4997-A683-2AB5ABD4A5D6}"/>
+    <hyperlink ref="A229" r:id="rId229" xr:uid="{B738A067-5850-4AAE-9B63-B7B2EFD0162C}"/>
+    <hyperlink ref="A230" r:id="rId230" xr:uid="{CD2715A5-50F7-4234-97A0-78C933233E3D}"/>
+    <hyperlink ref="A231" r:id="rId231" xr:uid="{C463B1E9-408E-4572-8C2D-88B006119044}"/>
+    <hyperlink ref="A232" r:id="rId232" xr:uid="{C5E39C98-5386-45D2-9E98-9874AC3E0881}"/>
+    <hyperlink ref="A233" r:id="rId233" xr:uid="{B945A69A-B999-43BF-A1F5-71D28DA3845C}"/>
+    <hyperlink ref="A234" r:id="rId234" xr:uid="{D654E5C3-F45F-4A9A-97A7-2B11C170CC75}"/>
+    <hyperlink ref="A235" r:id="rId235" xr:uid="{F41D3C9E-0BD5-4939-ACEA-DC22F1F79985}"/>
+    <hyperlink ref="A236" r:id="rId236" xr:uid="{6D209AD4-E99B-427C-97A9-DDAEECE4E075}"/>
+    <hyperlink ref="A237" r:id="rId237" xr:uid="{E3D44AC4-05FC-4EFF-BE67-38A43C3AAF7F}"/>
+    <hyperlink ref="A238" r:id="rId238" xr:uid="{A7C411EB-1D71-44BE-8718-B6477751A77D}"/>
+    <hyperlink ref="A239" r:id="rId239" xr:uid="{883BFAAD-EEB0-43AB-B16B-AEFC9343316A}"/>
+    <hyperlink ref="A240" r:id="rId240" xr:uid="{1C48CC29-89FD-4138-92B4-47E0A5F56AF4}"/>
+    <hyperlink ref="A241" r:id="rId241" xr:uid="{269C9136-DB64-4BD4-ADAC-635EE95B3D65}"/>
+    <hyperlink ref="A242" r:id="rId242" xr:uid="{71B79E87-4070-4BCD-B8FA-6793DEEBA230}"/>
+    <hyperlink ref="A243" r:id="rId243" display="https://live-azs-nursing.pantheonsite.io/events/3340-political-determinants-health-%E2%80%93-talk-and-book-signing-daniel-dawes" xr:uid="{814C487E-EB21-4082-9DF9-28A73680BF94}"/>
+    <hyperlink ref="A244" r:id="rId244" xr:uid="{2CAB93C1-1B7B-4231-BF5C-6CBFDACADEE0}"/>
+    <hyperlink ref="A245" r:id="rId245" xr:uid="{5B5EC924-7603-4507-B362-EE8C79965DF3}"/>
+    <hyperlink ref="A246" r:id="rId246" xr:uid="{90988C80-64DB-4AB2-BD8C-55EA86179F85}"/>
+    <hyperlink ref="A247" r:id="rId247" xr:uid="{9CAC5B3A-8305-4DE0-A723-CDBA0CBE2E7E}"/>
+    <hyperlink ref="A248" r:id="rId248" xr:uid="{E958B53D-9F4A-476D-91AC-0EFE63FD4892}"/>
+    <hyperlink ref="A249" r:id="rId249" xr:uid="{49D6A243-00CB-439A-981F-B999B9B11E0F}"/>
+    <hyperlink ref="A250" r:id="rId250" xr:uid="{2AA338E3-C424-4142-9F36-079D8C24185B}"/>
+    <hyperlink ref="A251" r:id="rId251" xr:uid="{0CB54E11-C30E-40B0-BF17-B79FF035A4EF}"/>
+    <hyperlink ref="A252" r:id="rId252" xr:uid="{95C8EBA9-A5F5-4AD1-99CE-81B7AFBD9171}"/>
+    <hyperlink ref="A253" r:id="rId253" xr:uid="{E456EEFF-648C-4951-8E3F-92B83808DED0}"/>
+    <hyperlink ref="A254" r:id="rId254" xr:uid="{35C66909-B874-4091-BBCD-909663B377C2}"/>
+    <hyperlink ref="A255" r:id="rId255" xr:uid="{8E4D7664-279E-49FB-AA73-65405BACF623}"/>
+    <hyperlink ref="A256" r:id="rId256" xr:uid="{4C7001BB-881A-4C14-990B-94E9A8C76140}"/>
+    <hyperlink ref="A257" r:id="rId257" xr:uid="{0E331AC6-E648-4CA1-A6D1-DC6BF04B8A9D}"/>
+    <hyperlink ref="A258" r:id="rId258" xr:uid="{A1B0A1C8-4D16-4FC4-A664-B1BC12DA9529}"/>
+    <hyperlink ref="A259" r:id="rId259" xr:uid="{945E57F7-46CC-483E-899A-A659039E3455}"/>
+    <hyperlink ref="A260" r:id="rId260" xr:uid="{5A03BB22-8928-46FF-96AE-123F10B8A961}"/>
+    <hyperlink ref="A261" r:id="rId261" xr:uid="{4F7241E1-1A9C-4BDB-B46A-C0629BF125AC}"/>
+    <hyperlink ref="A262" r:id="rId262" xr:uid="{A787DFE4-482F-4124-91EC-60DB064A2B61}"/>
+    <hyperlink ref="A263" r:id="rId263" xr:uid="{8EE116D1-F6F9-4885-88CA-196576CC6295}"/>
+    <hyperlink ref="A264" r:id="rId264" xr:uid="{1248CFAF-763D-4E06-9F24-6808860F598E}"/>
+    <hyperlink ref="A265" r:id="rId265" xr:uid="{E5EA93CC-D19C-4C25-B023-2E0F3756E817}"/>
+    <hyperlink ref="A266" r:id="rId266" xr:uid="{3A2E2CDE-0DE1-4FF8-9631-5D2D349C2D74}"/>
+    <hyperlink ref="A267" r:id="rId267" xr:uid="{EB7E84BF-2701-4AC2-A0E3-BE10CE4EADEB}"/>
+    <hyperlink ref="A268" r:id="rId268" xr:uid="{93FD2BDE-25BF-4E19-B3C5-1B468DE76ABA}"/>
+    <hyperlink ref="A269" r:id="rId269" xr:uid="{3C4C37BA-7D7F-4556-899E-34122AA72F01}"/>
+    <hyperlink ref="A270" r:id="rId270" xr:uid="{F3DBF8AE-56F3-49BC-872E-8837401CDE0F}"/>
+    <hyperlink ref="A271" r:id="rId271" xr:uid="{BD77D94A-A2E2-4310-A9F7-84D04BD10C2A}"/>
+    <hyperlink ref="A272" r:id="rId272" xr:uid="{79E99239-EBD3-4D35-ABC4-CA2891CBD9B0}"/>
+    <hyperlink ref="A273" r:id="rId273" xr:uid="{5B5BDAE4-FA06-4436-9B38-4736624C0A87}"/>
+    <hyperlink ref="A274" r:id="rId274" xr:uid="{F90D054B-517B-48F8-B74B-97E31AE0243F}"/>
+    <hyperlink ref="A275" r:id="rId275" xr:uid="{AABE7D65-7DD4-4FD2-9CC4-693660E1D640}"/>
+    <hyperlink ref="A276" r:id="rId276" xr:uid="{3F4ED7BC-5548-4FFA-BD23-4E89E2DA9DAD}"/>
+    <hyperlink ref="A277" r:id="rId277" xr:uid="{9E1D51C8-0B46-4A62-B2CC-F742D913FFEB}"/>
+    <hyperlink ref="A278" r:id="rId278" xr:uid="{DA4B4951-2005-4BFF-B981-BA0BCC595E73}"/>
+    <hyperlink ref="A279" r:id="rId279" xr:uid="{2A76ACB1-F718-447D-9DBF-CA97F2736A03}"/>
+    <hyperlink ref="A280" r:id="rId280" xr:uid="{DB7E239F-6023-44D7-BF76-37C3D2309CAE}"/>
+    <hyperlink ref="A281" r:id="rId281" xr:uid="{3ABE6DBC-9737-4BCC-8F27-B031D416F9CD}"/>
+    <hyperlink ref="A282" r:id="rId282" xr:uid="{3C9915CD-46B5-40B9-BD8F-A0129D4FFEB7}"/>
+    <hyperlink ref="A283" r:id="rId283" xr:uid="{A2269A73-09D6-454A-8377-674D585E4CE9}"/>
+    <hyperlink ref="A284" r:id="rId284" xr:uid="{4399EF52-9C93-4C92-9EF6-C9AF906AC67E}"/>
+    <hyperlink ref="A285" r:id="rId285" xr:uid="{3C80B189-C10B-48AE-BB9E-81C52E81B4D4}"/>
+    <hyperlink ref="A286" r:id="rId286" xr:uid="{78A863CA-8F3E-4829-BD50-BC6F8310CE9A}"/>
+    <hyperlink ref="A287" r:id="rId287" xr:uid="{53440D15-391D-4461-85CD-1196C11B5434}"/>
+    <hyperlink ref="A288" r:id="rId288" xr:uid="{4C860DA2-1B2A-4C38-883F-B22067A9B33A}"/>
+    <hyperlink ref="A289" r:id="rId289" xr:uid="{0722559C-0EAC-44B2-8437-5BC99CE4C458}"/>
+    <hyperlink ref="A290" r:id="rId290" xr:uid="{61C2F44B-14D5-49BF-BC57-77F816DADC22}"/>
+    <hyperlink ref="A291" r:id="rId291" xr:uid="{8784FE84-7B0B-4EE3-8A07-1710BF77CE59}"/>
+    <hyperlink ref="A292" r:id="rId292" xr:uid="{2E3A288F-37C4-41B0-8C3D-FD032FA3A2B5}"/>
+    <hyperlink ref="A293" r:id="rId293" xr:uid="{E7A947F7-5508-4D88-A84B-5AFED8E17910}"/>
+    <hyperlink ref="A294" r:id="rId294" xr:uid="{D67F18DB-EC60-4D0C-92FB-BCFF403C2BF2}"/>
+    <hyperlink ref="A295" r:id="rId295" xr:uid="{DDC5328C-5C4B-4B71-9F3D-F21DDF68F4E0}"/>
+    <hyperlink ref="A296" r:id="rId296" xr:uid="{4ADD2118-B9FD-4991-80A5-880E5EC46EC7}"/>
+    <hyperlink ref="A297" r:id="rId297" xr:uid="{F438F000-96D4-4259-B9FB-0D33F168BD90}"/>
+    <hyperlink ref="A298" r:id="rId298" xr:uid="{0E6337EE-2056-4C6E-A8E9-BC637386D9FA}"/>
+    <hyperlink ref="A299" r:id="rId299" xr:uid="{B4A990D0-7577-4612-9739-45B413F4C5B5}"/>
+    <hyperlink ref="A300" r:id="rId300" xr:uid="{40D60ABB-4A4C-45C4-8E7C-CE95045A0613}"/>
+    <hyperlink ref="A301" r:id="rId301" xr:uid="{96D2E443-D004-4C20-BFD7-68C9106B943A}"/>
+    <hyperlink ref="A302" r:id="rId302" xr:uid="{CD5F7F4D-B1F4-42C2-8398-2D61B9AD963B}"/>
+    <hyperlink ref="A303" r:id="rId303" xr:uid="{37ADCFDF-8B78-45FC-A3C1-21D3F3570758}"/>
+    <hyperlink ref="A304" r:id="rId304" xr:uid="{9983B93F-C85F-4817-BDDE-4708B72ED9A2}"/>
+    <hyperlink ref="A305" r:id="rId305" xr:uid="{DC6447F4-209A-47FF-A787-9722FD55F338}"/>
+    <hyperlink ref="A306" r:id="rId306" xr:uid="{6C6F3B46-B176-4D2D-8AE2-CDB2BDE8A5D5}"/>
+    <hyperlink ref="A307" r:id="rId307" xr:uid="{93CFC0AB-BC4E-49C1-A507-311C37162A25}"/>
+    <hyperlink ref="A308" r:id="rId308" xr:uid="{B8B04B6E-C480-47AE-89CF-913C6EC45CA8}"/>
+    <hyperlink ref="A309" r:id="rId309" xr:uid="{11D3612F-CED5-43AD-B8D2-C59FDC48FE5C}"/>
+    <hyperlink ref="A310" r:id="rId310" xr:uid="{F0B36F92-5D4C-4FA1-A0ED-4D101F7EF4AE}"/>
+    <hyperlink ref="A311" r:id="rId311" xr:uid="{209D8BBF-43D9-47F7-9611-E65C78995DA4}"/>
+    <hyperlink ref="A312" r:id="rId312" xr:uid="{BC1BB398-1119-4395-9AFC-DEA39CF33C96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId313"/>
 </worksheet>
 </file>